--- a/similarities/split_global/harmonic_similarity_timestamps_205.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_205.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>isophonics_81</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['B', 'E/5', 'B']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:17.360000', '0:00:20.700000')]</t>
+          <t>('0:00:55.629773', '0:01:07.541609')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:03:57.580000', '0:04:13.720000')]</t>
+          <t>('0:00:40.490000', '0:00:47.860000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=17.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-81#t=55.629773</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=237.58']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:55.180000', '0:01:02.060000')]</t>
+          <t>('0:00:02.300000', '0:00:07.040000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+          <t>('0:00:00.340000', '0:00:04.840000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=2.3</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=0.34</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_111</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
+          <t>['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['C', 'C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:10.519024', '0:01:22.732721')]</t>
+          <t>('0:04:00.860000', '0:04:13.720000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:40.280000', '0:00:51.780000')]</t>
+          <t>('0:04:21.680000', '0:04:29.360000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-111#t=70.519024']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=240.86</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=40.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=261.68</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_201</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D', 'E:min', 'D']]</t>
+          <t>['D#:min', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Ab:maj', 'Bb:min', 'Ab:maj']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:12.996317', '0:00:20.066792')]</t>
+          <t>('0:00:08.260000', '0:00:12.960000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:09.241000', '0:00:14.362000')]</t>
+          <t>('0:00:20.920000', '0:00:26.040000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=12.996317']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=8.26</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-201#t=9.241']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=20.92</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>isophonics_212</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:02.600000', '0:00:04.500000')]</t>
+          <t>('0:00:21.580000', '0:00:29.340000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:06.260000')]</t>
+          <t>('0:00:46.932280', '0:00:54.037586')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=2.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=0.38']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=46.93228</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_144</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:06.260000')]</t>
+          <t>('0:00:00.240000', '0:00:05.080000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:40.380000', '0:00:42.280000')]</t>
+          <t>('0:00:00.860000', '0:00:05.140000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=0.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=0.24</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=40.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=0.86</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
+          <t>schubert-winterreise_29</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>schubert-winterreise_116</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
+          <t>['A#:min', 'F:7/C', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'A:7', 'D:min']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:02:29', '0:03:02.720000')]</t>
+          <t>('0:00:00.800000', '0:00:02.880000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:01.920000', '0:00:46.120000')]</t>
+          <t>('0:00:19.980000', '0:00:27.180000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=149.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=0.8</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=1.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=19.98</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'A']]</t>
+          <t>['A#:min/F', 'F', 'A#:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:04.250000', '0:00:09.179000')]</t>
+          <t>('0:00:13.360000', '0:00:20.940000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+          <t>('0:00:12.140000', '0:00:20.020000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=13.36</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=12.14</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
+          <t>schubert-winterreise_83</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>isophonics_31</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'F#']]</t>
+          <t>['G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:14.928466', '0:00:21.522933')]</t>
+          <t>('0:02:14.840000', '0:02:17.480000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:16.020000', '0:00:22.500000')]</t>
+          <t>('0:00:13.336043', '0:00:26.115071')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-89#t=14.928466']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=134.84</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=13.336043</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_290</t>
+          <t>schubert-winterreise_79</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>schubert-winterreise_195</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C']]</t>
+          <t>['E:7', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:08.482392', '0:00:11.666439')]</t>
+          <t>('0:00:10.240000', '0:00:22.400000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:40.960000', '0:00:43.300000')]</t>
+          <t>('0:00:23.400000', '0:00:31.320000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-290#t=8.482392']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=10.24</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=40.96']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=23.4</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_4</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min/5']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min']]</t>
+          <t>['A/3', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:24.323000', '0:01:27.713000')]</t>
+          <t>('0:01:00.120000', '0:01:01.360000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:02.360000', '0:00:05.680000')]</t>
+          <t>('0:00:58.557000', '0:01:02.834000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-4#t=84.323']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=2.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['Ab/b5', 'Ab:7', 'Db/3']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A', 'A:7/3', 'D']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:05.320000', '0:00:06.840000')]</t>
+          <t>('0:01:05.440000', '0:01:06.820000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:14.541510', '0:00:23.411533')]</t>
+          <t>('0:01:16.560000', '0:01:27.040000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=5.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=65.44</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=14.54151']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=76.56</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>isophonics_275</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_125</t>
+          <t>schubert-winterreise_209</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:7/C', 'C', 'C/G']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A:7/3', 'G/3', 'G']]</t>
+          <t>['G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:03:53.020000', '0:03:56.980000')]</t>
+          <t>('0:00:24.401147', '0:00:28.461467')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:07.905000', '0:01:12.107811')]</t>
+          <t>('0:02:22.380000', '0:02:25.800000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=233.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=24.401147</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-125#t=67.905']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=142.38</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_49</t>
+          <t>isophonics_107</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_5</t>
+          <t>schubert-winterreise_31</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'Bb:7'], ['G:7', 'C:min7', 'F:7']]</t>
+          <t>['A', 'E', 'B:7']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'Bb:7'], ['G:7', 'C:min7', 'F:7']]</t>
+          <t>['C:maj', 'G:maj', 'D:7']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:02.600000', '0:00:03.800000'), ('0:00:00.580000', '0:00:01.800000')]</t>
+          <t>('0:01:44.354195', '0:01:53.665396')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:20.080000', '0:00:23.280000'), ('0:00:19.550000', '0:00:22.230000')]</t>
+          <t>('0:00:06.840000', '0:00:12.340000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-49#t=2.6', 'https://soundcloud.com/jacopo-de-berardinis/jaah-49#t=0.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=104.354195</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-5#t=20.08', 'https://soundcloud.com/jacopo-de-berardinis/jaah-5#t=19.55']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=6.84</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
+          <t>isophonics_108</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['Ab', 'Db/5', 'Ab']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
+          <t>('0:00:00.243000', '0:00:09.120000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:05.915850', '0:00:14.867142')]</t>
+          <t>('0:00:01.829138', '0:00:15.586961')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-146#t=5.91585']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
